--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Trf-Tfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Trf-Tfr2.xlsx
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.6392115</v>
+        <v>0.7249595</v>
       </c>
       <c r="H2">
-        <v>3.278423</v>
+        <v>1.449919</v>
       </c>
       <c r="I2">
-        <v>0.01272782471046816</v>
+        <v>0.009164944391374578</v>
       </c>
       <c r="J2">
-        <v>0.008552882094555033</v>
+        <v>0.006149298029018674</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>0.3460546666666667</v>
+        <v>0.0553045</v>
       </c>
       <c r="N2">
-        <v>1.038164</v>
+        <v>0.110609</v>
       </c>
       <c r="O2">
-        <v>0.5736035953407319</v>
+        <v>0.1265259665980325</v>
       </c>
       <c r="P2">
-        <v>0.5736035953407319</v>
+        <v>0.08999830758365254</v>
       </c>
       <c r="Q2">
-        <v>0.5672567892286667</v>
+        <v>0.04009352266775</v>
       </c>
       <c r="R2">
-        <v>3.403540735372</v>
+        <v>0.160374090671</v>
       </c>
       <c r="S2">
-        <v>0.007300726014791144</v>
+        <v>0.001159603447935885</v>
       </c>
       <c r="T2">
-        <v>0.004905963919962137</v>
+        <v>0.0005534264154391709</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.6392115</v>
+        <v>0.7249595</v>
       </c>
       <c r="H3">
-        <v>3.278423</v>
+        <v>1.449919</v>
       </c>
       <c r="I3">
-        <v>0.01272782471046816</v>
+        <v>0.009164944391374578</v>
       </c>
       <c r="J3">
-        <v>0.008552882094555033</v>
+        <v>0.006149298029018674</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.031443</v>
+        <v>0.3460546666666667</v>
       </c>
       <c r="N3">
-        <v>0.094329</v>
+        <v>1.038164</v>
       </c>
       <c r="O3">
-        <v>0.05211840667264122</v>
+        <v>0.7917059406695646</v>
       </c>
       <c r="P3">
-        <v>0.05211840667264121</v>
+        <v>0.8447142908287306</v>
       </c>
       <c r="Q3">
-        <v>0.0515417271945</v>
+        <v>0.2508756181193333</v>
       </c>
       <c r="R3">
-        <v>0.309250363167</v>
+        <v>1.505253708716</v>
       </c>
       <c r="S3">
-        <v>0.0006633539443182712</v>
+        <v>0.00725594092055746</v>
       </c>
       <c r="T3">
-        <v>0.0004457625872271706</v>
+        <v>0.00519439992367702</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.6392115</v>
+        <v>0.7249595</v>
       </c>
       <c r="H4">
-        <v>3.278423</v>
+        <v>1.449919</v>
       </c>
       <c r="I4">
-        <v>0.01272782471046816</v>
+        <v>0.009164944391374578</v>
       </c>
       <c r="J4">
-        <v>0.008552882094555033</v>
+        <v>0.006149298029018674</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.03684766666666667</v>
+        <v>0.0269835</v>
       </c>
       <c r="N4">
-        <v>0.110543</v>
+        <v>0.053967</v>
       </c>
       <c r="O4">
-        <v>0.06107692256690709</v>
+        <v>0.06173301304049417</v>
       </c>
       <c r="P4">
-        <v>0.06107692256690708</v>
+        <v>0.04391088126071999</v>
       </c>
       <c r="Q4">
-        <v>0.06040111894816667</v>
+        <v>0.01956194466825</v>
       </c>
       <c r="R4">
-        <v>0.362406713689</v>
+        <v>0.07824777867299999</v>
       </c>
       <c r="S4">
-        <v>0.0007773763642864302</v>
+        <v>0.0005657796316281307</v>
       </c>
       <c r="T4">
-        <v>0.0005223837174130238</v>
+        <v>0.0002700210955890184</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.6392115</v>
+        <v>0.7249595</v>
       </c>
       <c r="H5">
-        <v>3.278423</v>
+        <v>1.449919</v>
       </c>
       <c r="I5">
-        <v>0.01272782471046816</v>
+        <v>0.009164944391374578</v>
       </c>
       <c r="J5">
-        <v>0.008552882094555033</v>
+        <v>0.006149298029018674</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.188954</v>
+        <v>0.008757333333333334</v>
       </c>
       <c r="N5">
-        <v>0.566862</v>
+        <v>0.026272</v>
       </c>
       <c r="O5">
-        <v>0.3132010754197198</v>
+        <v>0.02003507969190879</v>
       </c>
       <c r="P5">
-        <v>0.3132010754197198</v>
+        <v>0.02137652032689672</v>
       </c>
       <c r="Q5">
-        <v>0.309735569771</v>
+        <v>0.006348711994666667</v>
       </c>
       <c r="R5">
-        <v>1.858413418626</v>
+        <v>0.038092271968</v>
       </c>
       <c r="S5">
-        <v>0.00398636838707231</v>
+        <v>0.0001836203912531022</v>
       </c>
       <c r="T5">
-        <v>0.002678771869952702</v>
+        <v>0.0001314505943134636</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,40 +797,40 @@
         <v>22.927531</v>
       </c>
       <c r="I6">
-        <v>0.05934105017601952</v>
+        <v>0.0966166830223007</v>
       </c>
       <c r="J6">
-        <v>0.05981426721391823</v>
+        <v>0.09723868794640567</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M6">
-        <v>0.3460546666666667</v>
+        <v>0.0553045</v>
       </c>
       <c r="N6">
-        <v>1.038164</v>
+        <v>0.110609</v>
       </c>
       <c r="O6">
-        <v>0.5736035953407319</v>
+        <v>0.1265259665980325</v>
       </c>
       <c r="P6">
-        <v>0.5736035953407319</v>
+        <v>0.08999830758365254</v>
       </c>
       <c r="Q6">
-        <v>2.644726365898222</v>
+        <v>0.4226652127298334</v>
       </c>
       <c r="R6">
-        <v>23.802537293084</v>
+        <v>2.535991276379</v>
       </c>
       <c r="S6">
-        <v>0.03403823973225957</v>
+        <v>0.01222451920889231</v>
       </c>
       <c r="T6">
-        <v>0.03430967872657476</v>
+        <v>0.008751317346831424</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>22.927531</v>
       </c>
       <c r="I7">
-        <v>0.05934105017601952</v>
+        <v>0.0966166830223007</v>
       </c>
       <c r="J7">
-        <v>0.05981426721391823</v>
+        <v>0.09723868794640567</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.031443</v>
+        <v>0.3460546666666667</v>
       </c>
       <c r="N7">
-        <v>0.094329</v>
+        <v>1.038164</v>
       </c>
       <c r="O7">
-        <v>0.05211840667264122</v>
+        <v>0.7917059406695646</v>
       </c>
       <c r="P7">
-        <v>0.05211840667264121</v>
+        <v>0.8447142908287306</v>
       </c>
       <c r="Q7">
-        <v>0.240303452411</v>
+        <v>2.644726365898222</v>
       </c>
       <c r="R7">
-        <v>2.162731071699</v>
+        <v>23.802537293084</v>
       </c>
       <c r="S7">
-        <v>0.003092760985455393</v>
+        <v>0.07649200191654372</v>
       </c>
       <c r="T7">
-        <v>0.003117424303481021</v>
+        <v>0.0821389093297643</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>22.927531</v>
       </c>
       <c r="I8">
-        <v>0.05934105017601952</v>
+        <v>0.0966166830223007</v>
       </c>
       <c r="J8">
-        <v>0.05981426721391823</v>
+        <v>0.09723868794640567</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.03684766666666667</v>
+        <v>0.0269835</v>
       </c>
       <c r="N8">
-        <v>0.110543</v>
+        <v>0.053967</v>
       </c>
       <c r="O8">
-        <v>0.06107692256690709</v>
+        <v>0.06173301304049417</v>
       </c>
       <c r="P8">
-        <v>0.06107692256690708</v>
+        <v>0.04391088126071999</v>
       </c>
       <c r="Q8">
-        <v>0.2816086732592222</v>
+        <v>0.2062216775795</v>
       </c>
       <c r="R8">
-        <v>2.534478059333</v>
+        <v>1.237330065477</v>
       </c>
       <c r="S8">
-        <v>0.003624368726639692</v>
+        <v>0.005964438952944981</v>
       </c>
       <c r="T8">
-        <v>0.003653271367020773</v>
+        <v>0.004269836480362823</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,40 +983,40 @@
         <v>22.927531</v>
       </c>
       <c r="I9">
-        <v>0.05934105017601952</v>
+        <v>0.0966166830223007</v>
       </c>
       <c r="J9">
-        <v>0.05981426721391823</v>
+        <v>0.09723868794640567</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.188954</v>
+        <v>0.008757333333333334</v>
       </c>
       <c r="N9">
-        <v>0.566862</v>
+        <v>0.026272</v>
       </c>
       <c r="O9">
-        <v>0.3132010754197198</v>
+        <v>0.02003507969190879</v>
       </c>
       <c r="P9">
-        <v>0.3132010754197198</v>
+        <v>0.02137652032689672</v>
       </c>
       <c r="Q9">
-        <v>1.444082897524667</v>
+        <v>0.06692801049244446</v>
       </c>
       <c r="R9">
-        <v>12.996746077722</v>
+        <v>0.6023520944320001</v>
       </c>
       <c r="S9">
-        <v>0.01858568073166486</v>
+        <v>0.001935722943919686</v>
       </c>
       <c r="T9">
-        <v>0.01873389281684168</v>
+        <v>0.002078624789447108</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>42.191786</v>
+        <v>23.57221566666666</v>
       </c>
       <c r="H10">
-        <v>126.575358</v>
+        <v>70.71664699999999</v>
       </c>
       <c r="I10">
-        <v>0.3276024213041357</v>
+        <v>0.2980001583074484</v>
       </c>
       <c r="J10">
-        <v>0.3302148969337066</v>
+        <v>0.2999186423627177</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M10">
-        <v>0.3460546666666667</v>
+        <v>0.0553045</v>
       </c>
       <c r="N10">
-        <v>1.038164</v>
+        <v>0.110609</v>
       </c>
       <c r="O10">
-        <v>0.5736035953407319</v>
+        <v>0.1265259665980325</v>
       </c>
       <c r="P10">
-        <v>0.5736035953407319</v>
+        <v>0.08999830758365254</v>
       </c>
       <c r="Q10">
-        <v>14.60066444030133</v>
+        <v>1.303649601337167</v>
       </c>
       <c r="R10">
-        <v>131.405979962712</v>
+        <v>7.821897608022999</v>
       </c>
       <c r="S10">
-        <v>0.1879139267023814</v>
+        <v>0.03770475807621661</v>
       </c>
       <c r="T10">
-        <v>0.1894124521162433</v>
+        <v>0.02699217022543135</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,46 +1101,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>42.191786</v>
+        <v>23.57221566666666</v>
       </c>
       <c r="H11">
-        <v>126.575358</v>
+        <v>70.71664699999999</v>
       </c>
       <c r="I11">
-        <v>0.3276024213041357</v>
+        <v>0.2980001583074484</v>
       </c>
       <c r="J11">
-        <v>0.3302148969337066</v>
+        <v>0.2999186423627177</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.031443</v>
+        <v>0.3460546666666667</v>
       </c>
       <c r="N11">
-        <v>0.094329</v>
+        <v>1.038164</v>
       </c>
       <c r="O11">
-        <v>0.05211840667264122</v>
+        <v>0.7917059406695646</v>
       </c>
       <c r="P11">
-        <v>0.05211840667264121</v>
+        <v>0.8447142908287306</v>
       </c>
       <c r="Q11">
-        <v>1.326636327198</v>
+        <v>8.157275235123111</v>
       </c>
       <c r="R11">
-        <v>11.939726944782</v>
+        <v>73.41547711610799</v>
       </c>
       <c r="S11">
-        <v>0.01707411622047089</v>
+        <v>0.2359284956524776</v>
       </c>
       <c r="T11">
-        <v>0.01721027428775522</v>
+        <v>0.2533455632897388</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>42.191786</v>
+        <v>23.57221566666666</v>
       </c>
       <c r="H12">
-        <v>126.575358</v>
+        <v>70.71664699999999</v>
       </c>
       <c r="I12">
-        <v>0.3276024213041357</v>
+        <v>0.2980001583074484</v>
       </c>
       <c r="J12">
-        <v>0.3302148969337066</v>
+        <v>0.2999186423627177</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.03684766666666667</v>
+        <v>0.0269835</v>
       </c>
       <c r="N12">
-        <v>0.110543</v>
+        <v>0.053967</v>
       </c>
       <c r="O12">
-        <v>0.06107692256690709</v>
+        <v>0.06173301304049417</v>
       </c>
       <c r="P12">
-        <v>0.06107692256690708</v>
+        <v>0.04391088126071999</v>
       </c>
       <c r="Q12">
-        <v>1.554668866599333</v>
+        <v>0.6360608814415</v>
       </c>
       <c r="R12">
-        <v>13.992019799394</v>
+        <v>3.816365288649</v>
       </c>
       <c r="S12">
-        <v>0.02000894771872397</v>
+        <v>0.01839644765886304</v>
       </c>
       <c r="T12">
-        <v>0.0201685096904592</v>
+        <v>0.01316969189266564</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>42.191786</v>
+        <v>23.57221566666666</v>
       </c>
       <c r="H13">
-        <v>126.575358</v>
+        <v>70.71664699999999</v>
       </c>
       <c r="I13">
-        <v>0.3276024213041357</v>
+        <v>0.2980001583074484</v>
       </c>
       <c r="J13">
-        <v>0.3302148969337066</v>
+        <v>0.2999186423627177</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.188954</v>
+        <v>0.008757333333333334</v>
       </c>
       <c r="N13">
-        <v>0.566862</v>
+        <v>0.026272</v>
       </c>
       <c r="O13">
-        <v>0.3132010754197198</v>
+        <v>0.02003507969190879</v>
       </c>
       <c r="P13">
-        <v>0.3132010754197198</v>
+        <v>0.02137652032689672</v>
       </c>
       <c r="Q13">
-        <v>7.972306731843999</v>
+        <v>0.2064297499982222</v>
       </c>
       <c r="R13">
-        <v>71.75076058659599</v>
+        <v>1.857867749984</v>
       </c>
       <c r="S13">
-        <v>0.1026054306625594</v>
+        <v>0.005970456919891165</v>
       </c>
       <c r="T13">
-        <v>0.1034236608392488</v>
+        <v>0.006411216954881904</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.4175225</v>
+        <v>0.792999</v>
       </c>
       <c r="H14">
-        <v>2.835045</v>
+        <v>1.585998</v>
       </c>
       <c r="I14">
-        <v>0.01100649788214919</v>
+        <v>0.01002510035031702</v>
       </c>
       <c r="J14">
-        <v>0.007396179693028561</v>
+        <v>0.006726427045529826</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M14">
-        <v>0.3460546666666667</v>
+        <v>0.0553045</v>
       </c>
       <c r="N14">
-        <v>1.038164</v>
+        <v>0.110609</v>
       </c>
       <c r="O14">
-        <v>0.5736035953407319</v>
+        <v>0.1265259665980325</v>
       </c>
       <c r="P14">
-        <v>0.5736035953407319</v>
+        <v>0.08999830758365254</v>
       </c>
       <c r="Q14">
-        <v>0.49054027623</v>
+        <v>0.0438564131955</v>
       </c>
       <c r="R14">
-        <v>2.94324165738</v>
+        <v>0.175425652782</v>
       </c>
       <c r="S14">
-        <v>0.006313366757310927</v>
+        <v>0.001268435512066135</v>
       </c>
       <c r="T14">
-        <v>0.004242475263707294</v>
+        <v>0.0006053670501825924</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.4175225</v>
+        <v>0.792999</v>
       </c>
       <c r="H15">
-        <v>2.835045</v>
+        <v>1.585998</v>
       </c>
       <c r="I15">
-        <v>0.01100649788214919</v>
+        <v>0.01002510035031702</v>
       </c>
       <c r="J15">
-        <v>0.007396179693028561</v>
+        <v>0.006726427045529826</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.031443</v>
+        <v>0.3460546666666667</v>
       </c>
       <c r="N15">
-        <v>0.094329</v>
+        <v>1.038164</v>
       </c>
       <c r="O15">
-        <v>0.05211840667264122</v>
+        <v>0.7917059406695646</v>
       </c>
       <c r="P15">
-        <v>0.05211840667264121</v>
+        <v>0.8447142908287306</v>
       </c>
       <c r="Q15">
-        <v>0.0445711599675</v>
+        <v>0.274421004612</v>
       </c>
       <c r="R15">
-        <v>0.267426959805</v>
+        <v>1.646526027672</v>
       </c>
       <c r="S15">
-        <v>0.0005736411326634158</v>
+        <v>0.007936931503154516</v>
       </c>
       <c r="T15">
-        <v>0.0003854771010651932</v>
+        <v>0.00568190905157592</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.4175225</v>
+        <v>0.792999</v>
       </c>
       <c r="H16">
-        <v>2.835045</v>
+        <v>1.585998</v>
       </c>
       <c r="I16">
-        <v>0.01100649788214919</v>
+        <v>0.01002510035031702</v>
       </c>
       <c r="J16">
-        <v>0.007396179693028561</v>
+        <v>0.006726427045529826</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M16">
-        <v>0.03684766666666667</v>
+        <v>0.0269835</v>
       </c>
       <c r="N16">
-        <v>0.110543</v>
+        <v>0.053967</v>
       </c>
       <c r="O16">
-        <v>0.06107692256690709</v>
+        <v>0.06173301304049417</v>
       </c>
       <c r="P16">
-        <v>0.06107692256690708</v>
+        <v>0.04391088126071999</v>
       </c>
       <c r="Q16">
-        <v>0.0522323965725</v>
+        <v>0.0213978885165</v>
       </c>
       <c r="R16">
-        <v>0.313394379435</v>
+        <v>0.085591554066</v>
       </c>
       <c r="S16">
-        <v>0.0006722430188808529</v>
+        <v>0.0006188796506583831</v>
       </c>
       <c r="T16">
-        <v>0.000451735894402036</v>
+        <v>0.0002953633393051557</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,46 +1473,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.4175225</v>
+        <v>0.792999</v>
       </c>
       <c r="H17">
-        <v>2.835045</v>
+        <v>1.585998</v>
       </c>
       <c r="I17">
-        <v>0.01100649788214919</v>
+        <v>0.01002510035031702</v>
       </c>
       <c r="J17">
-        <v>0.007396179693028561</v>
+        <v>0.006726427045529826</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>0.188954</v>
+        <v>0.008757333333333334</v>
       </c>
       <c r="N17">
-        <v>0.566862</v>
+        <v>0.026272</v>
       </c>
       <c r="O17">
-        <v>0.3132010754197198</v>
+        <v>0.02003507969190879</v>
       </c>
       <c r="P17">
-        <v>0.3132010754197198</v>
+        <v>0.02137652032689672</v>
       </c>
       <c r="Q17">
-        <v>0.267846546465</v>
+        <v>0.006944556576</v>
       </c>
       <c r="R17">
-        <v>1.60707927879</v>
+        <v>0.041667339456</v>
       </c>
       <c r="S17">
-        <v>0.003447246973293994</v>
+        <v>0.0002008536844379842</v>
       </c>
       <c r="T17">
-        <v>0.002316491433854038</v>
+        <v>0.0001437876044661562</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.5856513333333334</v>
+        <v>29.941029</v>
       </c>
       <c r="H18">
-        <v>1.756954</v>
+        <v>89.823087</v>
       </c>
       <c r="I18">
-        <v>0.004547349449487527</v>
+        <v>0.3785147526248482</v>
       </c>
       <c r="J18">
-        <v>0.004583612428157332</v>
+        <v>0.3809515785705773</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M18">
-        <v>0.3460546666666667</v>
+        <v>0.0553045</v>
       </c>
       <c r="N18">
-        <v>1.038164</v>
+        <v>0.110609</v>
       </c>
       <c r="O18">
-        <v>0.5736035953407319</v>
+        <v>0.1265259665980325</v>
       </c>
       <c r="P18">
-        <v>0.5736035953407319</v>
+        <v>0.08999830758365254</v>
       </c>
       <c r="Q18">
-        <v>0.2026673769395556</v>
+        <v>1.6558736383305</v>
       </c>
       <c r="R18">
-        <v>1.824006392456</v>
+        <v>9.935241829982999</v>
       </c>
       <c r="S18">
-        <v>0.002608375993496744</v>
+        <v>0.04789194494747408</v>
       </c>
       <c r="T18">
-        <v>0.002629176568439508</v>
+        <v>0.0342849973426728</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.5856513333333334</v>
+        <v>29.941029</v>
       </c>
       <c r="H19">
-        <v>1.756954</v>
+        <v>89.823087</v>
       </c>
       <c r="I19">
-        <v>0.004547349449487527</v>
+        <v>0.3785147526248482</v>
       </c>
       <c r="J19">
-        <v>0.004583612428157332</v>
+        <v>0.3809515785705773</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M19">
-        <v>0.031443</v>
+        <v>0.3460546666666667</v>
       </c>
       <c r="N19">
-        <v>0.094329</v>
+        <v>1.038164</v>
       </c>
       <c r="O19">
-        <v>0.05211840667264122</v>
+        <v>0.7917059406695646</v>
       </c>
       <c r="P19">
-        <v>0.05211840667264121</v>
+        <v>0.8447142908287306</v>
       </c>
       <c r="Q19">
-        <v>0.018414634874</v>
+        <v>10.361232810252</v>
       </c>
       <c r="R19">
-        <v>0.165731713866</v>
+        <v>93.251095292268</v>
       </c>
       <c r="S19">
-        <v>0.0002370006078910021</v>
+        <v>0.299672378284163</v>
       </c>
       <c r="T19">
-        <v>0.0002388905765604763</v>
+        <v>0.3217952425323307</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>3</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.5856513333333334</v>
+        <v>29.941029</v>
       </c>
       <c r="H20">
-        <v>1.756954</v>
+        <v>89.823087</v>
       </c>
       <c r="I20">
-        <v>0.004547349449487527</v>
+        <v>0.3785147526248482</v>
       </c>
       <c r="J20">
-        <v>0.004583612428157332</v>
+        <v>0.3809515785705773</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M20">
-        <v>0.03684766666666667</v>
+        <v>0.0269835</v>
       </c>
       <c r="N20">
-        <v>0.110543</v>
+        <v>0.053967</v>
       </c>
       <c r="O20">
-        <v>0.06107692256690709</v>
+        <v>0.06173301304049417</v>
       </c>
       <c r="P20">
-        <v>0.06107692256690708</v>
+        <v>0.04391088126071999</v>
       </c>
       <c r="Q20">
-        <v>0.02157988511355556</v>
+        <v>0.8079137560215001</v>
       </c>
       <c r="R20">
-        <v>0.194218966022</v>
+        <v>4.847482536129</v>
       </c>
       <c r="S20">
-        <v>0.0002777381102110173</v>
+        <v>0.02336685615980918</v>
       </c>
       <c r="T20">
-        <v>0.0002799529413512783</v>
+        <v>0.01672791953269646</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,46 +1721,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.5856513333333334</v>
+        <v>29.941029</v>
       </c>
       <c r="H21">
-        <v>1.756954</v>
+        <v>89.823087</v>
       </c>
       <c r="I21">
-        <v>0.004547349449487527</v>
+        <v>0.3785147526248482</v>
       </c>
       <c r="J21">
-        <v>0.004583612428157332</v>
+        <v>0.3809515785705773</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>0.188954</v>
+        <v>0.008757333333333334</v>
       </c>
       <c r="N21">
-        <v>0.566862</v>
+        <v>0.026272</v>
       </c>
       <c r="O21">
-        <v>0.3132010754197198</v>
+        <v>0.02003507969190879</v>
       </c>
       <c r="P21">
-        <v>0.3132010754197198</v>
+        <v>0.02137652032689672</v>
       </c>
       <c r="Q21">
-        <v>0.1106611620386667</v>
+        <v>0.262203571296</v>
       </c>
       <c r="R21">
-        <v>0.995950458348</v>
+        <v>2.359832141664</v>
       </c>
       <c r="S21">
-        <v>0.001424234737888764</v>
+        <v>0.007583573233401977</v>
       </c>
       <c r="T21">
-        <v>0.001435592341806069</v>
+        <v>0.008143419162877341</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>75.312922</v>
+        <v>16.42763933333334</v>
       </c>
       <c r="H22">
-        <v>225.938766</v>
+        <v>49.282918</v>
       </c>
       <c r="I22">
-        <v>0.5847748564777399</v>
+        <v>0.2076783613037111</v>
       </c>
       <c r="J22">
-        <v>0.5894381616366342</v>
+        <v>0.2090153660457508</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M22">
-        <v>0.3460546666666667</v>
+        <v>0.0553045</v>
       </c>
       <c r="N22">
-        <v>1.038164</v>
+        <v>0.110609</v>
       </c>
       <c r="O22">
-        <v>0.5736035953407319</v>
+        <v>0.1265259665980325</v>
       </c>
       <c r="P22">
-        <v>0.5736035953407319</v>
+        <v>0.08999830758365254</v>
       </c>
       <c r="Q22">
-        <v>26.06238811840267</v>
+        <v>0.9085223795103334</v>
       </c>
       <c r="R22">
-        <v>234.561493065624</v>
+        <v>5.451134277062001</v>
       </c>
       <c r="S22">
-        <v>0.3354289601404921</v>
+        <v>0.02627670540544748</v>
       </c>
       <c r="T22">
-        <v>0.3381038487458048</v>
+        <v>0.01881102920309521</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,46 +1845,46 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>75.312922</v>
+        <v>16.42763933333334</v>
       </c>
       <c r="H23">
-        <v>225.938766</v>
+        <v>49.282918</v>
       </c>
       <c r="I23">
-        <v>0.5847748564777399</v>
+        <v>0.2076783613037111</v>
       </c>
       <c r="J23">
-        <v>0.5894381616366342</v>
+        <v>0.2090153660457508</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>0.031443</v>
+        <v>0.3460546666666667</v>
       </c>
       <c r="N23">
-        <v>0.094329</v>
+        <v>1.038164</v>
       </c>
       <c r="O23">
-        <v>0.05211840667264122</v>
+        <v>0.7917059406695646</v>
       </c>
       <c r="P23">
-        <v>0.05211840667264121</v>
+        <v>0.8447142908287306</v>
       </c>
       <c r="Q23">
-        <v>2.368064206446</v>
+        <v>5.68486125361689</v>
       </c>
       <c r="R23">
-        <v>21.312577858014</v>
+        <v>51.16375128255201</v>
       </c>
       <c r="S23">
-        <v>0.03047753378184225</v>
+        <v>0.1644201923926683</v>
       </c>
       <c r="T23">
-        <v>0.03072057781655213</v>
+        <v>0.1765582667016439</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>75.312922</v>
+        <v>16.42763933333334</v>
       </c>
       <c r="H24">
-        <v>225.938766</v>
+        <v>49.282918</v>
       </c>
       <c r="I24">
-        <v>0.5847748564777399</v>
+        <v>0.2076783613037111</v>
       </c>
       <c r="J24">
-        <v>0.5894381616366342</v>
+        <v>0.2090153660457508</v>
       </c>
       <c r="K24">
         <v>1</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M24">
-        <v>0.03684766666666667</v>
+        <v>0.0269835</v>
       </c>
       <c r="N24">
-        <v>0.110543</v>
+        <v>0.053967</v>
       </c>
       <c r="O24">
-        <v>0.06107692256690709</v>
+        <v>0.06173301304049417</v>
       </c>
       <c r="P24">
-        <v>0.06107692256690708</v>
+        <v>0.04391088126071999</v>
       </c>
       <c r="Q24">
-        <v>2.775105445548667</v>
+        <v>0.4432752059510001</v>
       </c>
       <c r="R24">
-        <v>24.975949009938</v>
+        <v>2.659651235706</v>
       </c>
       <c r="S24">
-        <v>0.03571624862816512</v>
+        <v>0.01282061098659046</v>
       </c>
       <c r="T24">
-        <v>0.03600106895626076</v>
+        <v>0.009178048920100887</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>75.312922</v>
+        <v>16.42763933333334</v>
       </c>
       <c r="H25">
-        <v>225.938766</v>
+        <v>49.282918</v>
       </c>
       <c r="I25">
-        <v>0.5847748564777399</v>
+        <v>0.2076783613037111</v>
       </c>
       <c r="J25">
-        <v>0.5894381616366342</v>
+        <v>0.2090153660457508</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.188954</v>
+        <v>0.008757333333333334</v>
       </c>
       <c r="N25">
-        <v>0.566862</v>
+        <v>0.026272</v>
       </c>
       <c r="O25">
-        <v>0.3132010754197198</v>
+        <v>0.02003507969190879</v>
       </c>
       <c r="P25">
-        <v>0.3132010754197198</v>
+        <v>0.02137652032689672</v>
       </c>
       <c r="Q25">
-        <v>14.230677863588</v>
+        <v>0.1438623135217778</v>
       </c>
       <c r="R25">
-        <v>128.076100772292</v>
+        <v>1.294760821696</v>
       </c>
       <c r="S25">
-        <v>0.1831521139272404</v>
+        <v>0.00416085251900488</v>
       </c>
       <c r="T25">
-        <v>0.1846126661180164</v>
+        <v>0.004468021220910751</v>
       </c>
     </row>
   </sheetData>
